--- a/AssessmentSchedule_2627.xlsx
+++ b/AssessmentSchedule_2627.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="433" documentId="8_{F30C7968-F540-46E6-A81C-665FBDA0D3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{394997DB-4FA0-41B6-88C2-4C97D143E327}"/>
+  <xr:revisionPtr revIDLastSave="446" documentId="8_{F30C7968-F540-46E6-A81C-665FBDA0D3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95772556-3C0C-4813-85B8-E5BBB23B471D}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="26040" windowHeight="15600" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="28702" yWindow="-98" windowWidth="26115" windowHeight="15675" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="281">
   <si>
     <t>Module Code</t>
   </si>
@@ -979,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1087,51 +1087,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1149,6 +1104,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1211,41 +1178,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3312,6 +3244,41 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8712,7 +8679,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9161,56 +9128,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}" name="Table1" displayName="Table1" ref="A1:AJ133" totalsRowShown="0" headerRowDxfId="6" dataDxfId="99" headerRowBorderDxfId="100" tableBorderDxfId="98" totalsRowBorderDxfId="97">
-  <autoFilter ref="A1:AJ133" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH119">
-    <sortCondition ref="A1:A119"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}" name="Table1" displayName="Table1" ref="A1:AJ134" totalsRowShown="0" headerRowDxfId="100" dataDxfId="98" headerRowBorderDxfId="99" tableBorderDxfId="97" totalsRowBorderDxfId="96">
+  <autoFilter ref="A1:AJ134" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH120">
+    <sortCondition ref="A1:A120"/>
   </sortState>
   <tableColumns count="36">
-    <tableColumn id="1" xr3:uid="{7078548A-F011-4851-AB36-1F04238FA2FE}" name="Module Code" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{D2290F36-B8B3-427A-AEFE-45FD22901411}" name="Module Title" dataDxfId="95"/>
-    <tableColumn id="3" xr3:uid="{31165455-2AA3-4532-A0A0-C942837C0F79}" name="CA type" dataDxfId="94"/>
-    <tableColumn id="33" xr3:uid="{B83E0E3E-2B28-42F1-BC64-5D7177EC4229}" name="CA Weight" dataDxfId="93">
+    <tableColumn id="1" xr3:uid="{7078548A-F011-4851-AB36-1F04238FA2FE}" name="Module Code" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{D2290F36-B8B3-427A-AEFE-45FD22901411}" name="Module Title" dataDxfId="94"/>
+    <tableColumn id="3" xr3:uid="{31165455-2AA3-4532-A0A0-C942837C0F79}" name="CA type" dataDxfId="93"/>
+    <tableColumn id="33" xr3:uid="{B83E0E3E-2B28-42F1-BC64-5D7177EC4229}" name="CA Weight" dataDxfId="92">
       <calculatedColumnFormula>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{AEA2048C-138D-450A-BE52-3FCBDE03C67D}" name="Credits" dataDxfId="92">
+    <tableColumn id="34" xr3:uid="{AEA2048C-138D-450A-BE52-3FCBDE03C67D}" name="Credits" dataDxfId="91">
       <calculatedColumnFormula>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{82DD5B5B-C808-4E6E-849C-7A03DC6D0B69}" name="Description" dataDxfId="91"/>
-    <tableColumn id="36" xr3:uid="{A7BF30F6-C808-4B8F-B3FF-9FAF20E2145A}" name="Summative" dataDxfId="90"/>
-    <tableColumn id="16" xr3:uid="{E6637FEB-7F23-45F0-99D2-96D20DD2DAEF}" name="Duration" dataDxfId="89"/>
-    <tableColumn id="31" xr3:uid="{FD1E9614-3960-4F72-BD42-711A4CC7BBA0}" name="Nominal Hours" dataDxfId="88">
+    <tableColumn id="30" xr3:uid="{82DD5B5B-C808-4E6E-849C-7A03DC6D0B69}" name="Description" dataDxfId="90"/>
+    <tableColumn id="36" xr3:uid="{A7BF30F6-C808-4B8F-B3FF-9FAF20E2145A}" name="Summative" dataDxfId="89"/>
+    <tableColumn id="16" xr3:uid="{E6637FEB-7F23-45F0-99D2-96D20DD2DAEF}" name="Duration" dataDxfId="88"/>
+    <tableColumn id="31" xr3:uid="{FD1E9614-3960-4F72-BD42-711A4CC7BBA0}" name="Nominal Hours" dataDxfId="87">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{E11C773A-511F-4D25-8636-C56C5B61ED90}" name="Hours" dataDxfId="87"/>
-    <tableColumn id="4" xr3:uid="{04E38F13-8347-412C-866C-6EFE6796253C}" name="Autumn Week 1" dataDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{254D6A24-FC1B-44C7-A3DF-52DA2A250D31}" name="Autumn Week 2" dataDxfId="85"/>
-    <tableColumn id="6" xr3:uid="{9EB326C3-772E-4E56-89FB-BA3A00291293}" name="Autumn Week 3" dataDxfId="84"/>
-    <tableColumn id="7" xr3:uid="{94BC6C78-5A89-4267-B1C1-BFA70E5A9F34}" name="Autumn Week 4" dataDxfId="83"/>
-    <tableColumn id="8" xr3:uid="{CF3B6389-B559-4FE3-8B33-FEDB303382B1}" name="Autumn Week 5" dataDxfId="82"/>
-    <tableColumn id="9" xr3:uid="{8DD80B9C-D1B1-4CDE-A624-4CD3A15113DD}" name="Autumn Week 6" dataDxfId="81"/>
-    <tableColumn id="10" xr3:uid="{8C4EBEE4-01CB-4AD0-B594-F466CC36D370}" name="Autumn Week 7" dataDxfId="80"/>
-    <tableColumn id="11" xr3:uid="{7F8C91DE-BE61-47CF-A916-D06ED7B283E9}" name="Autumn Week 8" dataDxfId="79"/>
-    <tableColumn id="12" xr3:uid="{9D58139A-0F96-4203-8D22-58BC34744B87}" name="Autumn Week 9" dataDxfId="78"/>
-    <tableColumn id="13" xr3:uid="{43C545DF-9B9E-4080-8012-F9EFA0F01283}" name="Autumn Week 10" dataDxfId="77"/>
-    <tableColumn id="14" xr3:uid="{829AB976-2AB2-435C-8F11-DE08DACA4407}" name="Autumn Week 11" dataDxfId="76"/>
-    <tableColumn id="15" xr3:uid="{9126A0EA-FC34-4876-9D56-A0AC39C5526C}" name="Autumn Week 12" dataDxfId="75"/>
-    <tableColumn id="17" xr3:uid="{15B891EE-FCC8-4E53-A90D-3E10FFC1E9FA}" name="Spring Week 1" dataDxfId="74"/>
-    <tableColumn id="18" xr3:uid="{464CA212-3B53-4678-AFE4-8AF8308C1986}" name="Spring Week 2" dataDxfId="73"/>
-    <tableColumn id="19" xr3:uid="{B560E823-CC29-418C-B26C-52D9FFC8C72E}" name="Spring Week 3" dataDxfId="72"/>
-    <tableColumn id="20" xr3:uid="{D95606F3-E0A0-4907-91E0-4AD09D0C65CB}" name="Spring Week 4" dataDxfId="71"/>
-    <tableColumn id="21" xr3:uid="{E71FF892-9A4B-444C-8972-62D92F81B0E7}" name="Spring Week 5" dataDxfId="70"/>
-    <tableColumn id="22" xr3:uid="{C7775BA8-178A-4501-A8DE-2B2CF77A2451}" name="Spring Week 6" dataDxfId="69"/>
-    <tableColumn id="23" xr3:uid="{51A89A97-F839-4F50-88A9-65049D65C9B0}" name="Spring Week 7" dataDxfId="68"/>
-    <tableColumn id="24" xr3:uid="{26EE6D10-4FC4-49AE-8DE6-18AC556C293D}" name="Spring Week 8" dataDxfId="67"/>
-    <tableColumn id="25" xr3:uid="{FCB1B9FB-21DA-415A-86E6-C8E14F864E1B}" name="Spring Week 9" dataDxfId="66"/>
-    <tableColumn id="26" xr3:uid="{54402AE1-DC77-41BA-BCC7-28BCA7186B44}" name="Spring Week 10" dataDxfId="65"/>
-    <tableColumn id="27" xr3:uid="{31C092D1-BD77-4126-8E72-8E74D0D11509}" name="Spring Week 11" dataDxfId="64"/>
-    <tableColumn id="28" xr3:uid="{56D67770-E36A-46FE-97FA-76CD24229C51}" name="Spring Week 12" dataDxfId="63"/>
-    <tableColumn id="29" xr3:uid="{785AD842-5ED0-4E27-B4B7-26E6FF9AC266}" name="Sub-total" dataDxfId="62">
+    <tableColumn id="32" xr3:uid="{E11C773A-511F-4D25-8636-C56C5B61ED90}" name="Hours" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{04E38F13-8347-412C-866C-6EFE6796253C}" name="Autumn Week 1" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{254D6A24-FC1B-44C7-A3DF-52DA2A250D31}" name="Autumn Week 2" dataDxfId="84"/>
+    <tableColumn id="6" xr3:uid="{9EB326C3-772E-4E56-89FB-BA3A00291293}" name="Autumn Week 3" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{94BC6C78-5A89-4267-B1C1-BFA70E5A9F34}" name="Autumn Week 4" dataDxfId="82"/>
+    <tableColumn id="8" xr3:uid="{CF3B6389-B559-4FE3-8B33-FEDB303382B1}" name="Autumn Week 5" dataDxfId="81"/>
+    <tableColumn id="9" xr3:uid="{8DD80B9C-D1B1-4CDE-A624-4CD3A15113DD}" name="Autumn Week 6" dataDxfId="80"/>
+    <tableColumn id="10" xr3:uid="{8C4EBEE4-01CB-4AD0-B594-F466CC36D370}" name="Autumn Week 7" dataDxfId="79"/>
+    <tableColumn id="11" xr3:uid="{7F8C91DE-BE61-47CF-A916-D06ED7B283E9}" name="Autumn Week 8" dataDxfId="78"/>
+    <tableColumn id="12" xr3:uid="{9D58139A-0F96-4203-8D22-58BC34744B87}" name="Autumn Week 9" dataDxfId="77"/>
+    <tableColumn id="13" xr3:uid="{43C545DF-9B9E-4080-8012-F9EFA0F01283}" name="Autumn Week 10" dataDxfId="76"/>
+    <tableColumn id="14" xr3:uid="{829AB976-2AB2-435C-8F11-DE08DACA4407}" name="Autumn Week 11" dataDxfId="75"/>
+    <tableColumn id="15" xr3:uid="{9126A0EA-FC34-4876-9D56-A0AC39C5526C}" name="Autumn Week 12" dataDxfId="74"/>
+    <tableColumn id="17" xr3:uid="{15B891EE-FCC8-4E53-A90D-3E10FFC1E9FA}" name="Spring Week 1" dataDxfId="73"/>
+    <tableColumn id="18" xr3:uid="{464CA212-3B53-4678-AFE4-8AF8308C1986}" name="Spring Week 2" dataDxfId="72"/>
+    <tableColumn id="19" xr3:uid="{B560E823-CC29-418C-B26C-52D9FFC8C72E}" name="Spring Week 3" dataDxfId="71"/>
+    <tableColumn id="20" xr3:uid="{D95606F3-E0A0-4907-91E0-4AD09D0C65CB}" name="Spring Week 4" dataDxfId="70"/>
+    <tableColumn id="21" xr3:uid="{E71FF892-9A4B-444C-8972-62D92F81B0E7}" name="Spring Week 5" dataDxfId="69"/>
+    <tableColumn id="22" xr3:uid="{C7775BA8-178A-4501-A8DE-2B2CF77A2451}" name="Spring Week 6" dataDxfId="68"/>
+    <tableColumn id="23" xr3:uid="{51A89A97-F839-4F50-88A9-65049D65C9B0}" name="Spring Week 7" dataDxfId="67"/>
+    <tableColumn id="24" xr3:uid="{26EE6D10-4FC4-49AE-8DE6-18AC556C293D}" name="Spring Week 8" dataDxfId="66"/>
+    <tableColumn id="25" xr3:uid="{FCB1B9FB-21DA-415A-86E6-C8E14F864E1B}" name="Spring Week 9" dataDxfId="65"/>
+    <tableColumn id="26" xr3:uid="{54402AE1-DC77-41BA-BCC7-28BCA7186B44}" name="Spring Week 10" dataDxfId="64"/>
+    <tableColumn id="27" xr3:uid="{31C092D1-BD77-4126-8E72-8E74D0D11509}" name="Spring Week 11" dataDxfId="63"/>
+    <tableColumn id="28" xr3:uid="{56D67770-E36A-46FE-97FA-76CD24229C51}" name="Spring Week 12" dataDxfId="62"/>
+    <tableColumn id="29" xr3:uid="{785AD842-5ED0-4E27-B4B7-26E6FF9AC266}" name="Sub-total" dataDxfId="61">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{EE5D0E71-7823-4EE2-9CC1-32BF500AB742}" name="Total Hours" dataDxfId="61">
+    <tableColumn id="35" xr3:uid="{EE5D0E71-7823-4EE2-9CC1-32BF500AB742}" name="Total Hours" dataDxfId="60">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9219,49 +9186,49 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A071F52D-AD51-4120-94C5-67D4117EBD07}" name="Table14" displayName="Table14" ref="A1:AE64" totalsRowShown="0" headerRowDxfId="60" dataDxfId="58" headerRowBorderDxfId="59" tableBorderDxfId="57" totalsRowBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A071F52D-AD51-4120-94C5-67D4117EBD07}" name="Table14" displayName="Table14" ref="A1:AE64" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
   <autoFilter ref="A1:AE64" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD64">
     <sortCondition ref="A1:A132"/>
   </sortState>
   <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{D7CE4D57-09F4-4B9D-B464-A087075D1C39}" name="Module Code" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{DE2920B2-70AC-48F3-99E7-07B70BC1E928}" name="Module Title" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{61946E7A-4C82-425B-89A6-3DBD530FCD55}" name="Contact type" dataDxfId="53"/>
-    <tableColumn id="34" xr3:uid="{55A68E2B-9324-4E9E-9629-6611EC7C904E}" name="Credits" dataDxfId="52">
+    <tableColumn id="1" xr3:uid="{D7CE4D57-09F4-4B9D-B464-A087075D1C39}" name="Module Code" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{DE2920B2-70AC-48F3-99E7-07B70BC1E928}" name="Module Title" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{61946E7A-4C82-425B-89A6-3DBD530FCD55}" name="Contact type" dataDxfId="52"/>
+    <tableColumn id="34" xr3:uid="{55A68E2B-9324-4E9E-9629-6611EC7C904E}" name="Credits" dataDxfId="51">
       <calculatedColumnFormula>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{9C4C2C35-CE5A-4469-93FA-21FC6F57EDAD}" name="Semester" dataDxfId="51">
+    <tableColumn id="30" xr3:uid="{9C4C2C35-CE5A-4469-93FA-21FC6F57EDAD}" name="Semester" dataDxfId="50">
       <calculatedColumnFormula>INDEX(Table2[Semester],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{A7B09E14-0C35-459D-A9D0-5143D8AFFE4E}" name="Nominal Hours" dataDxfId="50">
+    <tableColumn id="31" xr3:uid="{A7B09E14-0C35-459D-A9D0-5143D8AFFE4E}" name="Nominal Hours" dataDxfId="49">
       <calculatedColumnFormula>INDEX(Table2[Contact Time],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{503822B3-8862-4FCD-9DD3-3B52F57A97BE}" name="Autumn Week 1" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{760391D0-3219-4B11-8E3D-3E00EEDFA9DD}" name="Autumn Week 2" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{6EE5E3E9-C4FB-49BE-932C-B84EA0A7970D}" name="Autumn Week 3" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{2C7AD515-480E-49A6-8076-95205ACF95EC}" name="Autumn Week 4" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{6FD8C5C6-433E-493B-BB28-5ADD15CFC7FB}" name="Autumn Week 5" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{801E6BE2-75F8-40A5-A263-0AAEFDAA63E7}" name="Autumn Week 6" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{976D463A-C6BC-4636-B732-53E6CDF3F6C7}" name="Autumn Week 7" dataDxfId="43"/>
-    <tableColumn id="11" xr3:uid="{D025F987-6302-4D7B-9A9A-636F867D1872}" name="Autumn Week 8" dataDxfId="42"/>
-    <tableColumn id="12" xr3:uid="{D30D10EE-2DE5-4659-AA67-2134D11D6119}" name="Autumn Week 9" dataDxfId="41"/>
-    <tableColumn id="13" xr3:uid="{35E8F713-2D13-47B7-9811-293DA89F0D62}" name="Autumn Week 10" dataDxfId="40"/>
-    <tableColumn id="14" xr3:uid="{5DD48606-F817-4B30-8BA1-A96457CBB489}" name="Autumn Week 11" dataDxfId="39"/>
-    <tableColumn id="15" xr3:uid="{9B982ED1-A4C5-4E87-99AB-70713F2B634E}" name="Autumn Week 12" dataDxfId="38"/>
-    <tableColumn id="17" xr3:uid="{3AFDFF11-D351-428A-AC16-E674EB9DD7CC}" name="Spring Week 1" dataDxfId="37"/>
-    <tableColumn id="18" xr3:uid="{1431E9F9-328E-4229-9377-39D94C660D67}" name="Spring Week 2" dataDxfId="36"/>
-    <tableColumn id="19" xr3:uid="{8E1051DB-2A93-4ABA-8317-8F9921CF483D}" name="Spring Week 3" dataDxfId="35"/>
-    <tableColumn id="20" xr3:uid="{98B745E4-C481-42FF-9D3B-0D0899BD3DB6}" name="Spring Week 4" dataDxfId="34"/>
-    <tableColumn id="21" xr3:uid="{2FC9B562-4622-444D-9372-5637BFE48E0A}" name="Spring Week 5" dataDxfId="33"/>
-    <tableColumn id="22" xr3:uid="{95778D77-82F1-4B00-8FED-6FEB2BF83C3D}" name="Spring Week 6" dataDxfId="32"/>
-    <tableColumn id="23" xr3:uid="{9A49A64C-9A09-47A0-BC65-A8C1C98DACA3}" name="Spring Week 7" dataDxfId="31"/>
-    <tableColumn id="24" xr3:uid="{191AACBA-3CF0-48E5-B522-FCD2CCE9AC99}" name="Spring Week 8" dataDxfId="30"/>
-    <tableColumn id="25" xr3:uid="{DC35B6C1-904B-4E6A-A04F-ADF850A50D85}" name="Spring Week 9" dataDxfId="29"/>
-    <tableColumn id="26" xr3:uid="{BEB9E86A-57BF-4A1E-A499-BADB9EAD1DE9}" name="Spring Week 10" dataDxfId="28"/>
-    <tableColumn id="27" xr3:uid="{D640FB81-F093-4E3F-B7A1-6995DDDD6305}" name="Spring Week 11" dataDxfId="27"/>
-    <tableColumn id="28" xr3:uid="{496FDC17-F0F2-4381-96DA-177DC578A786}" name="Spring Week 12" dataDxfId="26"/>
-    <tableColumn id="32" xr3:uid="{65BCC67A-5DC9-4957-BB42-BCF5FCA71B17}" name="Total" dataDxfId="25">
+    <tableColumn id="4" xr3:uid="{503822B3-8862-4FCD-9DD3-3B52F57A97BE}" name="Autumn Week 1" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{760391D0-3219-4B11-8E3D-3E00EEDFA9DD}" name="Autumn Week 2" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{6EE5E3E9-C4FB-49BE-932C-B84EA0A7970D}" name="Autumn Week 3" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{2C7AD515-480E-49A6-8076-95205ACF95EC}" name="Autumn Week 4" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{6FD8C5C6-433E-493B-BB28-5ADD15CFC7FB}" name="Autumn Week 5" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{801E6BE2-75F8-40A5-A263-0AAEFDAA63E7}" name="Autumn Week 6" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{976D463A-C6BC-4636-B732-53E6CDF3F6C7}" name="Autumn Week 7" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{D025F987-6302-4D7B-9A9A-636F867D1872}" name="Autumn Week 8" dataDxfId="41"/>
+    <tableColumn id="12" xr3:uid="{D30D10EE-2DE5-4659-AA67-2134D11D6119}" name="Autumn Week 9" dataDxfId="40"/>
+    <tableColumn id="13" xr3:uid="{35E8F713-2D13-47B7-9811-293DA89F0D62}" name="Autumn Week 10" dataDxfId="39"/>
+    <tableColumn id="14" xr3:uid="{5DD48606-F817-4B30-8BA1-A96457CBB489}" name="Autumn Week 11" dataDxfId="38"/>
+    <tableColumn id="15" xr3:uid="{9B982ED1-A4C5-4E87-99AB-70713F2B634E}" name="Autumn Week 12" dataDxfId="37"/>
+    <tableColumn id="17" xr3:uid="{3AFDFF11-D351-428A-AC16-E674EB9DD7CC}" name="Spring Week 1" dataDxfId="36"/>
+    <tableColumn id="18" xr3:uid="{1431E9F9-328E-4229-9377-39D94C660D67}" name="Spring Week 2" dataDxfId="35"/>
+    <tableColumn id="19" xr3:uid="{8E1051DB-2A93-4ABA-8317-8F9921CF483D}" name="Spring Week 3" dataDxfId="34"/>
+    <tableColumn id="20" xr3:uid="{98B745E4-C481-42FF-9D3B-0D0899BD3DB6}" name="Spring Week 4" dataDxfId="33"/>
+    <tableColumn id="21" xr3:uid="{2FC9B562-4622-444D-9372-5637BFE48E0A}" name="Spring Week 5" dataDxfId="32"/>
+    <tableColumn id="22" xr3:uid="{95778D77-82F1-4B00-8FED-6FEB2BF83C3D}" name="Spring Week 6" dataDxfId="31"/>
+    <tableColumn id="23" xr3:uid="{9A49A64C-9A09-47A0-BC65-A8C1C98DACA3}" name="Spring Week 7" dataDxfId="30"/>
+    <tableColumn id="24" xr3:uid="{191AACBA-3CF0-48E5-B522-FCD2CCE9AC99}" name="Spring Week 8" dataDxfId="29"/>
+    <tableColumn id="25" xr3:uid="{DC35B6C1-904B-4E6A-A04F-ADF850A50D85}" name="Spring Week 9" dataDxfId="28"/>
+    <tableColumn id="26" xr3:uid="{BEB9E86A-57BF-4A1E-A499-BADB9EAD1DE9}" name="Spring Week 10" dataDxfId="27"/>
+    <tableColumn id="27" xr3:uid="{D640FB81-F093-4E3F-B7A1-6995DDDD6305}" name="Spring Week 11" dataDxfId="26"/>
+    <tableColumn id="28" xr3:uid="{496FDC17-F0F2-4381-96DA-177DC578A786}" name="Spring Week 12" dataDxfId="25"/>
+    <tableColumn id="32" xr3:uid="{65BCC67A-5DC9-4957-BB42-BCF5FCA71B17}" name="Total" dataDxfId="24">
       <calculatedColumnFormula>SUM(Table14[[#This Row],[Autumn Week 1]:[Spring Week 12]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9270,32 +9237,32 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}" name="Table2" displayName="Table2" ref="A1:R93" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}" name="Table2" displayName="Table2" ref="A1:R93" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22">
   <autoFilter ref="A1:R93" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B61">
     <sortCondition ref="A1:A61"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{A36A2B86-0F30-4188-9ECD-AE5BC71A59F4}" name="Module Code" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{D3F20037-EF35-4207-A530-484E1EB45719}" name="Module Title" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{40C22022-10B9-411F-9B76-B89140ABFFB2}" name="Alternative Module Code" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{CB12E405-1802-457C-AF17-F1B9CB3BBF13}" name="Source" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{EA737976-1AA7-49B6-8752-A388621554F4}" name="Semester" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{16DFC84F-5858-467D-B447-49992D721E4B}" name="Level" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{A17BC4BA-A3CB-442D-9BDC-D3B41B98B389}" name="Credits" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{7E25B4F4-1A7D-48D9-AAA2-AF5C97240797}" name="Physics" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{A36A2B86-0F30-4188-9ECD-AE5BC71A59F4}" name="Module Code" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{D3F20037-EF35-4207-A530-484E1EB45719}" name="Module Title" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{40C22022-10B9-411F-9B76-B89140ABFFB2}" name="Alternative Module Code" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{CB12E405-1802-457C-AF17-F1B9CB3BBF13}" name="Source" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{EA737976-1AA7-49B6-8752-A388621554F4}" name="Semester" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{16DFC84F-5858-467D-B447-49992D721E4B}" name="Level" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{A17BC4BA-A3CB-442D-9BDC-D3B41B98B389}" name="Credits" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{7E25B4F4-1A7D-48D9-AAA2-AF5C97240797}" name="Physics" dataDxfId="13"/>
     <tableColumn id="17" xr3:uid="{AA3AE96F-2651-49D7-89AD-BA94806438AE}" name="PhysAstro"/>
-    <tableColumn id="4" xr3:uid="{9C7DD469-E550-411F-8467-246A1543FB38}" name="Astro" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{3C5D3AEB-487E-4678-A42F-BE4BA4D0E9AA}" name="MedPhys" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{AE552873-9B31-41A6-B73C-D052477CA74C}" name="MScPhysics" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{8F51CE76-3A29-487A-A13C-FB63C79CF3E6}" name="MScAstro" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{9C7DD469-E550-411F-8467-246A1543FB38}" name="Astro" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{3C5D3AEB-487E-4678-A42F-BE4BA4D0E9AA}" name="MedPhys" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{AE552873-9B31-41A6-B73C-D052477CA74C}" name="MScPhysics" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{8F51CE76-3A29-487A-A13C-FB63C79CF3E6}" name="MScAstro" dataDxfId="9"/>
     <tableColumn id="18" xr3:uid="{10668F71-1EDF-482E-86A5-46E1F3C15120}" name="MScCSPhysics"/>
     <tableColumn id="16" xr3:uid="{DB790F5F-BEF0-41CE-A68A-1AA9DF83D66B}" name="Contact Time"/>
-    <tableColumn id="10" xr3:uid="{60774AFA-B365-4EB5-AAFF-6235868F8C97}" name="Exam Weight (%)" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{537B7C75-E9C0-42F2-9F3C-6E960AB2D257}" name="CA weight" dataDxfId="8">
+    <tableColumn id="10" xr3:uid="{60774AFA-B365-4EB5-AAFF-6235868F8C97}" name="Exam Weight (%)" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{537B7C75-E9C0-42F2-9F3C-6E960AB2D257}" name="CA weight" dataDxfId="7">
       <calculatedColumnFormula>100-Table2[[#This Row],[Exam Weight (%)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{75DA2527-5A08-4ECE-B4E4-752A8F8BF059}" name="CA Check" dataDxfId="7">
+    <tableColumn id="11" xr3:uid="{75DA2527-5A08-4ECE-B4E4-752A8F8BF059}" name="CA Check" dataDxfId="6">
       <calculatedColumnFormula>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9620,136 +9587,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66039B40-29AD-4D93-B125-EAF72A7B3996}">
-  <dimension ref="A1:AJ133"/>
+  <dimension ref="A1:AJ134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B119" sqref="B119"/>
+      <selection pane="bottomRight" activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.9296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.9296875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.73046875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.73046875" style="10" customWidth="1"/>
-    <col min="11" max="22" width="9.1328125" style="14" customWidth="1"/>
-    <col min="23" max="34" width="9.1328125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10" style="10" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" style="10" customWidth="1"/>
+    <col min="11" max="22" width="9.140625" style="14" customWidth="1"/>
+    <col min="23" max="34" width="9.140625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="61" customFormat="1" ht="28.5">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:36" s="44" customFormat="1" ht="30">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="58" t="s">
+      <c r="V1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="59" t="s">
+      <c r="W1" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="X1" s="59" t="s">
+      <c r="X1" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="Y1" s="59" t="s">
+      <c r="Y1" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="Z1" s="59" t="s">
+      <c r="Z1" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="AA1" s="59" t="s">
+      <c r="AA1" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="AB1" s="59" t="s">
+      <c r="AB1" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="AC1" s="59" t="s">
+      <c r="AC1" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="AD1" s="59" t="s">
+      <c r="AD1" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="AE1" s="59" t="s">
+      <c r="AE1" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="AF1" s="59" t="s">
+      <c r="AF1" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="AG1" s="59" t="s">
+      <c r="AG1" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="AH1" s="59" t="s">
+      <c r="AH1" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="AI1" s="60" t="s">
+      <c r="AI1" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="AJ1" s="60" t="s">
+      <c r="AJ1" s="43" t="s">
         <v>240</v>
       </c>
     </row>
@@ -10071,39 +10038,39 @@
       </c>
       <c r="K6" s="18"/>
       <c r="L6" s="18">
-        <f>0.2/9</f>
+        <f t="shared" ref="L6:T6" si="0">0.2/9</f>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="M6" s="18">
-        <f>0.2/9</f>
+        <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="N6" s="18">
-        <f>0.2/9</f>
+        <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="O6" s="18">
-        <f>0.2/9</f>
+        <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="P6" s="18">
-        <f>0.2/9</f>
+        <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="Q6" s="18">
-        <f>0.2/9</f>
+        <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="R6" s="18">
-        <f>0.2/9</f>
+        <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="S6" s="18">
-        <f>0.2/9</f>
+        <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="T6" s="18">
-        <f>0.2/9</f>
+        <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="U6" s="18"/>
@@ -12069,7 +12036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="14.55" customHeight="1">
+    <row r="33" spans="1:36" ht="14.65" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>45</v>
       </c>
@@ -13369,7 +13336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="14.55" customHeight="1">
+    <row r="51" spans="1:36" ht="14.65" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>91</v>
       </c>
@@ -13505,7 +13472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="14.55" customHeight="1">
+    <row r="53" spans="1:36" ht="14.65" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>95</v>
       </c>
@@ -13982,35 +13949,35 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="L59" s="18">
-        <f t="shared" ref="L59:S59" si="0">0.3/9</f>
+        <f t="shared" ref="L59:S59" si="1">0.3/9</f>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="M59" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="N59" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="O59" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="P59" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="Q59" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="R59" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="S59" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="T59" s="18"/>
@@ -15141,7 +15108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:36" ht="28.5">
       <c r="A75" s="8" t="s">
         <v>21</v>
       </c>
@@ -16318,7 +16285,7 @@
         <v>62</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="D91" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -16329,7 +16296,7 @@
         <v>10</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>244</v>
@@ -16339,22 +16306,55 @@
       </c>
       <c r="I91" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>12</v>
-      </c>
-      <c r="J91" s="11"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="18"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="19"/>
-      <c r="O91" s="18"/>
-      <c r="P91" s="18"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="J91" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K91" s="18">
+        <f>0.1/10</f>
+        <v>0.01</v>
+      </c>
+      <c r="L91" s="18">
+        <f t="shared" ref="L91:U91" si="2">0.1/10</f>
+        <v>0.01</v>
+      </c>
+      <c r="M91" s="18">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="N91" s="18">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="O91" s="18">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="P91" s="18">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
       <c r="Q91" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="R91" s="19"/>
-      <c r="S91" s="18"/>
-      <c r="T91" s="18"/>
-      <c r="U91" s="18"/>
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="R91" s="18">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="S91" s="18">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="T91" s="18">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="U91" s="18">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
       <c r="V91" s="19"/>
       <c r="W91" s="20"/>
       <c r="X91" s="20"/>
@@ -16370,58 +16370,58 @@
       <c r="AH91" s="20"/>
       <c r="AI91" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.3</v>
+        <v>0.10999999999999999</v>
       </c>
       <c r="AJ91" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>12</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="92" spans="1:36">
       <c r="A92" s="4" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C92" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C92" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D92" s="29">
+      <c r="D92" s="46">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>50</v>
-      </c>
-      <c r="E92" s="29">
+        <v>30</v>
+      </c>
+      <c r="E92" s="46">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F92" s="11" t="s">
+      <c r="F92" s="45" t="s">
         <v>210</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="H92" s="11">
-        <v>3</v>
-      </c>
-      <c r="I92" s="11">
+      <c r="H92" s="45">
+        <v>4</v>
+      </c>
+      <c r="I92" s="47">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
-      <c r="J92" s="11"/>
+      <c r="J92" s="45"/>
       <c r="K92" s="18"/>
       <c r="L92" s="18"/>
       <c r="M92" s="18"/>
       <c r="N92" s="19"/>
       <c r="O92" s="18"/>
       <c r="P92" s="18"/>
-      <c r="Q92" s="18"/>
+      <c r="Q92" s="18">
+        <v>0.2</v>
+      </c>
       <c r="R92" s="19"/>
       <c r="S92" s="18"/>
       <c r="T92" s="18"/>
-      <c r="U92" s="18">
-        <v>0.2</v>
-      </c>
+      <c r="U92" s="18"/>
       <c r="V92" s="19"/>
       <c r="W92" s="20"/>
       <c r="X92" s="20"/>
@@ -16435,11 +16435,11 @@
       <c r="AF92" s="20"/>
       <c r="AG92" s="20"/>
       <c r="AH92" s="20"/>
-      <c r="AI92" s="27">
+      <c r="AI92" s="48">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
         <v>0.2</v>
       </c>
-      <c r="AJ92" s="27">
+      <c r="AJ92" s="48">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>8</v>
       </c>
@@ -16452,7 +16452,7 @@
         <v>252</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="D93" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -16463,7 +16463,7 @@
         <v>10</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>244</v>
@@ -16482,13 +16482,13 @@
       <c r="N93" s="19"/>
       <c r="O93" s="18"/>
       <c r="P93" s="18"/>
-      <c r="Q93" s="18">
-        <v>0.2</v>
-      </c>
+      <c r="Q93" s="18"/>
       <c r="R93" s="19"/>
       <c r="S93" s="18"/>
       <c r="T93" s="18"/>
-      <c r="U93" s="18"/>
+      <c r="U93" s="18">
+        <v>0.2</v>
+      </c>
       <c r="V93" s="19"/>
       <c r="W93" s="20"/>
       <c r="X93" s="20"/>
@@ -16513,17 +16513,17 @@
     </row>
     <row r="94" spans="1:36">
       <c r="A94" s="4" t="s">
-        <v>63</v>
+        <v>253</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>64</v>
+        <v>252</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>121</v>
       </c>
       <c r="D94" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E94" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -16536,24 +16536,22 @@
         <v>244</v>
       </c>
       <c r="H94" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I94" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>10</v>
-      </c>
-      <c r="J94" s="11">
-        <v>15</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J94" s="11"/>
       <c r="K94" s="18"/>
       <c r="L94" s="18"/>
       <c r="M94" s="18"/>
       <c r="N94" s="19"/>
-      <c r="O94" s="18">
-        <v>0.25</v>
-      </c>
+      <c r="O94" s="18"/>
       <c r="P94" s="18"/>
-      <c r="Q94" s="18"/>
+      <c r="Q94" s="18">
+        <v>0.2</v>
+      </c>
       <c r="R94" s="19"/>
       <c r="S94" s="18"/>
       <c r="T94" s="18"/>
@@ -16573,11 +16571,11 @@
       <c r="AH94" s="20"/>
       <c r="AI94" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AJ94" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:36">
@@ -16588,7 +16586,7 @@
         <v>64</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="D95" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -16599,30 +16597,32 @@
         <v>10</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>244</v>
       </c>
       <c r="H95" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I95" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
-      </c>
-      <c r="J95" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="J95" s="11">
+        <v>15</v>
+      </c>
       <c r="K95" s="18"/>
       <c r="L95" s="18"/>
       <c r="M95" s="18"/>
       <c r="N95" s="19"/>
-      <c r="O95" s="18"/>
+      <c r="O95" s="18">
+        <v>0.25</v>
+      </c>
       <c r="P95" s="18"/>
       <c r="Q95" s="18"/>
       <c r="R95" s="19"/>
-      <c r="S95" s="18">
-        <v>0.1</v>
-      </c>
+      <c r="S95" s="18"/>
       <c r="T95" s="18"/>
       <c r="U95" s="18"/>
       <c r="V95" s="19"/>
@@ -16640,82 +16640,58 @@
       <c r="AH95" s="20"/>
       <c r="AI95" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AJ95" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:36">
       <c r="A96" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="D96" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E96" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>244</v>
       </c>
       <c r="H96" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I96" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>1.5</v>
-      </c>
-      <c r="J96" s="11">
-        <v>0.5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J96" s="11"/>
       <c r="K96" s="18"/>
       <c r="L96" s="18"/>
-      <c r="M96" s="18">
-        <f>0.3/8</f>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="N96" s="18">
-        <f t="shared" ref="N96:Q96" si="1">0.3/8</f>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="O96" s="18">
-        <f t="shared" si="1"/>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="P96" s="18">
-        <f t="shared" si="1"/>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="Q96" s="18">
-        <f t="shared" si="1"/>
-        <v>3.7499999999999999E-2</v>
-      </c>
+      <c r="M96" s="18"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="18"/>
+      <c r="P96" s="18"/>
+      <c r="Q96" s="18"/>
       <c r="R96" s="19"/>
       <c r="S96" s="18">
-        <f t="shared" ref="S96:U96" si="2">0.3/8</f>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="T96" s="18">
-        <f t="shared" si="2"/>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="U96" s="18">
-        <f t="shared" si="2"/>
-        <v>3.7499999999999999E-2</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="T96" s="18"/>
+      <c r="U96" s="18"/>
       <c r="V96" s="19"/>
       <c r="W96" s="20"/>
       <c r="X96" s="20"/>
@@ -16731,7 +16707,7 @@
       <c r="AH96" s="20"/>
       <c r="AI96" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AJ96" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
@@ -16740,17 +16716,17 @@
     </row>
     <row r="97" spans="1:36">
       <c r="A97" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>125</v>
       </c>
       <c r="D97" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E97" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -16767,46 +16743,46 @@
       </c>
       <c r="I97" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.49999999999999994</v>
+        <v>1.5</v>
       </c>
       <c r="J97" s="11">
         <v>0.5</v>
       </c>
-      <c r="K97" s="18">
-        <f>0.1/8</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="L97" s="18">
-        <f>0.1/8</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18"/>
       <c r="M97" s="18">
-        <f>0.1/8</f>
-        <v>1.2500000000000001E-2</v>
+        <f>0.3/8</f>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="N97" s="18">
-        <f>0.1/8</f>
-        <v>1.2500000000000001E-2</v>
+        <f t="shared" ref="N97:Q97" si="3">0.3/8</f>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="O97" s="18">
-        <f>0.1/8</f>
-        <v>1.2500000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="P97" s="18">
-        <f>0.1/8</f>
-        <v>1.2500000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="Q97" s="18">
-        <f>0.1/8</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="R97" s="18">
-        <f>0.1/8</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="S97" s="18"/>
-      <c r="T97" s="18"/>
-      <c r="U97" s="18"/>
+        <f t="shared" si="3"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="R97" s="19"/>
+      <c r="S97" s="18">
+        <f t="shared" ref="S97:U97" si="4">0.3/8</f>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="T97" s="18">
+        <f t="shared" si="4"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="U97" s="18">
+        <f t="shared" si="4"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
       <c r="V97" s="19"/>
       <c r="W97" s="20"/>
       <c r="X97" s="20"/>
@@ -16822,7 +16798,7 @@
       <c r="AH97" s="20"/>
       <c r="AI97" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>9.9999999999999992E-2</v>
+        <v>0.3</v>
       </c>
       <c r="AJ97" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
@@ -16837,7 +16813,7 @@
         <v>70</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="D98" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -16847,28 +16823,54 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F98" s="11"/>
+      <c r="F98" s="11" t="s">
+        <v>226</v>
+      </c>
       <c r="G98" s="11" t="s">
         <v>244</v>
       </c>
       <c r="H98" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I98" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>14</v>
-      </c>
-      <c r="J98" s="11"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="18"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="19"/>
-      <c r="O98" s="18"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="J98" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K98" s="18">
+        <f t="shared" ref="K98:R98" si="5">0.1/8</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="L98" s="18">
+        <f t="shared" si="5"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="M98" s="18">
+        <f t="shared" si="5"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="N98" s="18">
+        <f t="shared" si="5"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="O98" s="18">
+        <f t="shared" si="5"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
       <c r="P98" s="18">
-        <v>0.35</v>
-      </c>
-      <c r="Q98" s="18"/>
-      <c r="R98" s="19"/>
+        <f t="shared" si="5"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="Q98" s="18">
+        <f t="shared" si="5"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="R98" s="18">
+        <f t="shared" si="5"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
       <c r="S98" s="18"/>
       <c r="T98" s="18"/>
       <c r="U98" s="18"/>
@@ -16887,11 +16889,11 @@
       <c r="AH98" s="20"/>
       <c r="AI98" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.35</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="AJ98" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:36">
@@ -16902,7 +16904,7 @@
         <v>70</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="D99" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -16921,24 +16923,22 @@
       </c>
       <c r="I99" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>22</v>
-      </c>
-      <c r="J99" s="11">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="J99" s="11"/>
       <c r="K99" s="18"/>
       <c r="L99" s="18"/>
       <c r="M99" s="18"/>
       <c r="N99" s="19"/>
       <c r="O99" s="18"/>
-      <c r="P99" s="18"/>
+      <c r="P99" s="18">
+        <v>0.35</v>
+      </c>
       <c r="Q99" s="18"/>
       <c r="R99" s="19"/>
       <c r="S99" s="18"/>
       <c r="T99" s="18"/>
-      <c r="U99" s="18">
-        <v>0.55000000000000004</v>
-      </c>
+      <c r="U99" s="18"/>
       <c r="V99" s="19"/>
       <c r="W99" s="20"/>
       <c r="X99" s="20"/>
@@ -16954,77 +16954,57 @@
       <c r="AH99" s="20"/>
       <c r="AI99" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.55000000000000004</v>
+        <v>0.35</v>
       </c>
       <c r="AJ99" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:36">
       <c r="A100" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D100" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E100" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F100" s="11" t="s">
-        <v>226</v>
-      </c>
+      <c r="F100" s="11"/>
       <c r="G100" s="11" t="s">
         <v>244</v>
       </c>
       <c r="H100" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I100" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.39999999999999991</v>
+        <v>22</v>
       </c>
       <c r="J100" s="11">
-        <v>0.5</v>
+        <v>25</v>
       </c>
       <c r="K100" s="18"/>
-      <c r="L100" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="M100" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="N100" s="19">
-        <v>0.01</v>
-      </c>
-      <c r="O100" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="P100" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="Q100" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="R100" s="19">
-        <v>0.01</v>
-      </c>
-      <c r="S100" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="T100" s="18">
-        <v>0.01</v>
-      </c>
+      <c r="L100" s="18"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="19"/>
+      <c r="O100" s="18"/>
+      <c r="P100" s="18"/>
+      <c r="Q100" s="18"/>
+      <c r="R100" s="19"/>
+      <c r="S100" s="18"/>
+      <c r="T100" s="18"/>
       <c r="U100" s="18">
-        <v>0.01</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="V100" s="19"/>
       <c r="W100" s="20"/>
@@ -17041,11 +17021,11 @@
       <c r="AH100" s="20"/>
       <c r="AI100" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>9.9999999999999992E-2</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AJ100" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:36">
@@ -17056,7 +17036,7 @@
         <v>72</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="D101" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -17067,38 +17047,52 @@
         <v>10</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>244</v>
       </c>
       <c r="H101" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
-      </c>
-      <c r="J101" s="11"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="J101" s="11">
+        <v>0.5</v>
+      </c>
       <c r="K101" s="18"/>
-      <c r="L101" s="18"/>
+      <c r="L101" s="18">
+        <v>0.01</v>
+      </c>
       <c r="M101" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="N101" s="19"/>
+        <v>0.01</v>
+      </c>
+      <c r="N101" s="19">
+        <v>0.01</v>
+      </c>
       <c r="O101" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="P101" s="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="P101" s="18">
+        <v>0.01</v>
+      </c>
       <c r="Q101" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="R101" s="19"/>
-      <c r="S101" s="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="R101" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="S101" s="18">
+        <v>0.01</v>
+      </c>
       <c r="T101" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="U101" s="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="U101" s="18">
+        <v>0.01</v>
+      </c>
       <c r="V101" s="19"/>
       <c r="W101" s="20"/>
       <c r="X101" s="20"/>
@@ -17114,63 +17108,69 @@
       <c r="AH101" s="20"/>
       <c r="AI101" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.4</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="AJ101" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:36">
-      <c r="A102" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C102" s="12" t="s">
+      <c r="A102" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C102" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D102" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E102" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F102" s="12" t="s">
+      <c r="F102" s="11" t="s">
         <v>210</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>244</v>
       </c>
       <c r="H102" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J102" s="11"/>
       <c r="K102" s="18"/>
       <c r="L102" s="18"/>
-      <c r="M102" s="18"/>
+      <c r="M102" s="18">
+        <v>0.1</v>
+      </c>
       <c r="N102" s="19"/>
-      <c r="O102" s="18"/>
+      <c r="O102" s="18">
+        <v>0.1</v>
+      </c>
       <c r="P102" s="18"/>
-      <c r="Q102" s="18"/>
+      <c r="Q102" s="18">
+        <v>0.1</v>
+      </c>
       <c r="R102" s="19"/>
       <c r="S102" s="18"/>
-      <c r="T102" s="18"/>
+      <c r="T102" s="18">
+        <v>0.1</v>
+      </c>
       <c r="U102" s="18"/>
       <c r="V102" s="19"/>
       <c r="W102" s="20"/>
       <c r="X102" s="20"/>
       <c r="Y102" s="20"/>
-      <c r="Z102" s="20">
-        <v>0.2</v>
-      </c>
+      <c r="Z102" s="20"/>
       <c r="AA102" s="20"/>
       <c r="AB102" s="20"/>
       <c r="AC102" s="20"/>
@@ -17181,26 +17181,26 @@
       <c r="AH102" s="20"/>
       <c r="AI102" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AJ102" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:36">
       <c r="A103" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D103" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E103" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -17213,11 +17213,11 @@
         <v>244</v>
       </c>
       <c r="H103" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I103" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J103" s="11"/>
       <c r="K103" s="18"/>
@@ -17235,12 +17235,12 @@
       <c r="W103" s="20"/>
       <c r="X103" s="20"/>
       <c r="Y103" s="20"/>
-      <c r="Z103" s="20"/>
+      <c r="Z103" s="20">
+        <v>0.2</v>
+      </c>
       <c r="AA103" s="20"/>
       <c r="AB103" s="20"/>
-      <c r="AC103" s="20">
-        <v>0.3</v>
-      </c>
+      <c r="AC103" s="20"/>
       <c r="AD103" s="20"/>
       <c r="AE103" s="20"/>
       <c r="AF103" s="20"/>
@@ -17248,47 +17248,45 @@
       <c r="AH103" s="20"/>
       <c r="AI103" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AJ103" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:36">
       <c r="A104" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>125</v>
+        <v>111</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D104" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E104" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F104" s="11" t="s">
-        <v>226</v>
+      <c r="F104" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>244</v>
       </c>
       <c r="H104" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I104" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="J104" s="11">
-        <v>0.5</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J104" s="11"/>
       <c r="K104" s="18"/>
       <c r="L104" s="18"/>
       <c r="M104" s="18"/>
@@ -17302,44 +17300,26 @@
       <c r="U104" s="18"/>
       <c r="V104" s="19"/>
       <c r="W104" s="20"/>
-      <c r="X104" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="Y104" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="Z104" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="AA104" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="AB104" s="20">
-        <v>0.02</v>
-      </c>
+      <c r="X104" s="20"/>
+      <c r="Y104" s="20"/>
+      <c r="Z104" s="20"/>
+      <c r="AA104" s="20"/>
+      <c r="AB104" s="20"/>
       <c r="AC104" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="AD104" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="AE104" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="AF104" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="AG104" s="20">
-        <v>0.02</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="AD104" s="20"/>
+      <c r="AE104" s="20"/>
+      <c r="AF104" s="20"/>
+      <c r="AG104" s="20"/>
       <c r="AH104" s="20"/>
       <c r="AI104" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.19999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="AJ104" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:36">
@@ -17349,8 +17329,8 @@
       <c r="B105" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C105" s="12" t="s">
-        <v>5</v>
+      <c r="C105" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="D105" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -17360,20 +17340,22 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F105" s="12" t="s">
-        <v>210</v>
+      <c r="F105" s="11" t="s">
+        <v>226</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>244</v>
       </c>
       <c r="H105" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I105" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
-      </c>
-      <c r="J105" s="11"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="J105" s="11">
+        <v>0.5</v>
+      </c>
       <c r="K105" s="18"/>
       <c r="L105" s="18"/>
       <c r="M105" s="18"/>
@@ -17387,26 +17369,44 @@
       <c r="U105" s="18"/>
       <c r="V105" s="19"/>
       <c r="W105" s="20"/>
-      <c r="X105" s="20"/>
-      <c r="Y105" s="20"/>
-      <c r="Z105" s="20"/>
-      <c r="AA105" s="20"/>
-      <c r="AB105" s="20"/>
+      <c r="X105" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="Y105" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="Z105" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="AA105" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="AB105" s="20">
+        <v>0.02</v>
+      </c>
       <c r="AC105" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="AD105" s="20"/>
-      <c r="AE105" s="20"/>
-      <c r="AF105" s="20"/>
-      <c r="AG105" s="20"/>
+        <v>0.02</v>
+      </c>
+      <c r="AD105" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="AE105" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="AF105" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="AG105" s="20">
+        <v>0.02</v>
+      </c>
       <c r="AH105" s="20"/>
       <c r="AI105" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="AJ105" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:36">
@@ -17417,7 +17417,7 @@
         <v>112</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="D106" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -17428,21 +17428,19 @@
         <v>10</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>244</v>
       </c>
       <c r="H106" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I106" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>12</v>
-      </c>
-      <c r="J106" s="11">
-        <v>15</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J106" s="11"/>
       <c r="K106" s="18"/>
       <c r="L106" s="18"/>
       <c r="M106" s="18"/>
@@ -17461,56 +17459,56 @@
       <c r="Z106" s="20"/>
       <c r="AA106" s="20"/>
       <c r="AB106" s="20"/>
-      <c r="AC106" s="20"/>
+      <c r="AC106" s="20">
+        <v>0.1</v>
+      </c>
       <c r="AD106" s="20"/>
       <c r="AE106" s="20"/>
       <c r="AF106" s="20"/>
-      <c r="AG106" s="20">
-        <v>0.3</v>
-      </c>
+      <c r="AG106" s="20"/>
       <c r="AH106" s="20"/>
       <c r="AI106" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AJ106" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:36">
       <c r="A107" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>125</v>
+        <v>112</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="D107" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E107" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F107" s="11" t="s">
-        <v>226</v>
+      <c r="F107" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>244</v>
       </c>
       <c r="H107" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.79999999999999982</v>
+        <v>12</v>
       </c>
       <c r="J107" s="11">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="K107" s="18"/>
       <c r="L107" s="18"/>
@@ -17525,76 +17523,62 @@
       <c r="U107" s="18"/>
       <c r="V107" s="19"/>
       <c r="W107" s="20"/>
-      <c r="X107" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="Y107" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="Z107" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="AA107" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="AB107" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="AC107" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="AD107" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="AE107" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="AF107" s="20">
-        <v>0.02</v>
-      </c>
+      <c r="X107" s="20"/>
+      <c r="Y107" s="20"/>
+      <c r="Z107" s="20"/>
+      <c r="AA107" s="20"/>
+      <c r="AB107" s="20"/>
+      <c r="AC107" s="20"/>
+      <c r="AD107" s="20"/>
+      <c r="AE107" s="20"/>
+      <c r="AF107" s="20"/>
       <c r="AG107" s="20">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
       <c r="AH107" s="20"/>
       <c r="AI107" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.19999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="AJ107" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:36">
       <c r="A108" s="3" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>5</v>
+        <v>113</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="D108" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E108" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F108" s="12"/>
+      <c r="F108" s="11" t="s">
+        <v>226</v>
+      </c>
       <c r="G108" s="11" t="s">
         <v>244</v>
       </c>
       <c r="H108" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I108" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>19</v>
-      </c>
-      <c r="J108" s="11"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="J108" s="11">
+        <v>0.5</v>
+      </c>
       <c r="K108" s="18"/>
       <c r="L108" s="18"/>
       <c r="M108" s="18"/>
@@ -17608,28 +17592,44 @@
       <c r="U108" s="18"/>
       <c r="V108" s="19"/>
       <c r="W108" s="20"/>
-      <c r="X108" s="20"/>
-      <c r="Y108" s="20"/>
-      <c r="Z108" s="20"/>
-      <c r="AA108" s="20"/>
-      <c r="AB108" s="20"/>
+      <c r="X108" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="Y108" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="Z108" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="AA108" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="AB108" s="20">
+        <v>0.02</v>
+      </c>
       <c r="AC108" s="20">
-        <v>0.4</v>
-      </c>
-      <c r="AD108" s="20"/>
-      <c r="AE108" s="20"/>
+        <v>0.02</v>
+      </c>
+      <c r="AD108" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="AE108" s="20">
+        <v>0.02</v>
+      </c>
       <c r="AF108" s="20">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AG108" s="20"/>
+        <v>0.02</v>
+      </c>
+      <c r="AG108" s="20">
+        <v>0.02</v>
+      </c>
       <c r="AH108" s="20"/>
       <c r="AI108" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.95000000000000007</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="AJ108" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:36">
@@ -17640,7 +17640,7 @@
         <v>115</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="D109" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -17650,22 +17650,18 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F109" s="12" t="s">
-        <v>280</v>
-      </c>
+      <c r="F109" s="12"/>
       <c r="G109" s="11" t="s">
         <v>244</v>
       </c>
       <c r="H109" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I109" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>2</v>
-      </c>
-      <c r="J109" s="11">
-        <v>0.5</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J109" s="11"/>
       <c r="K109" s="18"/>
       <c r="L109" s="18"/>
       <c r="M109" s="18"/>
@@ -17684,53 +17680,57 @@
       <c r="Z109" s="20"/>
       <c r="AA109" s="20"/>
       <c r="AB109" s="20"/>
-      <c r="AC109" s="20"/>
+      <c r="AC109" s="20">
+        <v>0.4</v>
+      </c>
       <c r="AD109" s="20"/>
       <c r="AE109" s="20"/>
-      <c r="AF109" s="20"/>
-      <c r="AG109" s="20">
-        <v>0.05</v>
-      </c>
+      <c r="AF109" s="20">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AG109" s="20"/>
       <c r="AH109" s="20"/>
       <c r="AI109" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.05</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="AJ109" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>0.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:36">
-      <c r="A110" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="B110" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="C110" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D110" s="46">
+      <c r="A110" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D110" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>50</v>
-      </c>
-      <c r="E110" s="46">
+        <v>100</v>
+      </c>
+      <c r="E110" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F110" s="45"/>
+      <c r="F110" s="12" t="s">
+        <v>280</v>
+      </c>
       <c r="G110" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="H110" s="47">
+      <c r="H110" s="11">
         <v>1</v>
       </c>
-      <c r="I110" s="48">
+      <c r="I110" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.3636363636363637</v>
-      </c>
-      <c r="J110" s="47">
+        <v>2</v>
+      </c>
+      <c r="J110" s="11">
         <v>0.5</v>
       </c>
       <c r="K110" s="18"/>
@@ -17745,90 +17745,61 @@
       <c r="T110" s="18"/>
       <c r="U110" s="18"/>
       <c r="V110" s="19"/>
-      <c r="W110" s="20">
-        <f>0.1/11</f>
-        <v>9.0909090909090922E-3</v>
-      </c>
-      <c r="X110" s="20">
-        <f t="shared" ref="X110:AG110" si="3">0.1/11</f>
-        <v>9.0909090909090922E-3</v>
-      </c>
-      <c r="Y110" s="20">
-        <f t="shared" si="3"/>
-        <v>9.0909090909090922E-3</v>
-      </c>
-      <c r="Z110" s="20">
-        <f t="shared" si="3"/>
-        <v>9.0909090909090922E-3</v>
-      </c>
-      <c r="AA110" s="20">
-        <f t="shared" si="3"/>
-        <v>9.0909090909090922E-3</v>
-      </c>
-      <c r="AB110" s="20">
-        <f t="shared" si="3"/>
-        <v>9.0909090909090922E-3</v>
-      </c>
-      <c r="AC110" s="20">
-        <f t="shared" si="3"/>
-        <v>9.0909090909090922E-3</v>
-      </c>
-      <c r="AD110" s="20">
-        <f t="shared" si="3"/>
-        <v>9.0909090909090922E-3</v>
-      </c>
-      <c r="AE110" s="20">
-        <f t="shared" si="3"/>
-        <v>9.0909090909090922E-3</v>
-      </c>
-      <c r="AF110" s="20">
-        <f t="shared" si="3"/>
-        <v>9.0909090909090922E-3</v>
-      </c>
+      <c r="W110" s="20"/>
+      <c r="X110" s="20"/>
+      <c r="Y110" s="20"/>
+      <c r="Z110" s="20"/>
+      <c r="AA110" s="20"/>
+      <c r="AB110" s="20"/>
+      <c r="AC110" s="20"/>
+      <c r="AD110" s="20"/>
+      <c r="AE110" s="20"/>
+      <c r="AF110" s="20"/>
       <c r="AG110" s="20">
-        <f t="shared" si="3"/>
-        <v>9.0909090909090922E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AH110" s="20"/>
-      <c r="AI110" s="49">
+      <c r="AI110" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="AJ110" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="AJ110" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="111" spans="1:36">
-      <c r="A111" s="39" t="s">
+      <c r="A111" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B111" s="41" t="s">
+      <c r="B111" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="C111" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D111" s="46">
+      <c r="C111" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>50</v>
       </c>
-      <c r="E111" s="46">
+      <c r="E111" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F111" s="45"/>
+      <c r="F111" s="12"/>
       <c r="G111" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="H111" s="47">
-        <v>4</v>
-      </c>
-      <c r="I111" s="48">
+      <c r="H111" s="11">
+        <v>1</v>
+      </c>
+      <c r="I111" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
-      </c>
-      <c r="J111" s="47"/>
+        <v>0.3636363636363637</v>
+      </c>
+      <c r="J111" s="11">
+        <v>0.5</v>
+      </c>
       <c r="K111" s="18"/>
       <c r="L111" s="18"/>
       <c r="M111" s="18"/>
@@ -17841,65 +17812,90 @@
       <c r="T111" s="18"/>
       <c r="U111" s="18"/>
       <c r="V111" s="19"/>
-      <c r="W111" s="20"/>
-      <c r="X111" s="20"/>
-      <c r="Y111" s="20"/>
-      <c r="Z111" s="20"/>
-      <c r="AA111" s="20"/>
-      <c r="AB111" s="20"/>
+      <c r="W111" s="20">
+        <f>0.1/11</f>
+        <v>9.0909090909090922E-3</v>
+      </c>
+      <c r="X111" s="20">
+        <f t="shared" ref="X111:AG111" si="6">0.1/11</f>
+        <v>9.0909090909090922E-3</v>
+      </c>
+      <c r="Y111" s="20">
+        <f t="shared" si="6"/>
+        <v>9.0909090909090922E-3</v>
+      </c>
+      <c r="Z111" s="20">
+        <f t="shared" si="6"/>
+        <v>9.0909090909090922E-3</v>
+      </c>
+      <c r="AA111" s="20">
+        <f t="shared" si="6"/>
+        <v>9.0909090909090922E-3</v>
+      </c>
+      <c r="AB111" s="20">
+        <f t="shared" si="6"/>
+        <v>9.0909090909090922E-3</v>
+      </c>
       <c r="AC111" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="AD111" s="20"/>
-      <c r="AE111" s="20"/>
-      <c r="AF111" s="20"/>
+        <f t="shared" si="6"/>
+        <v>9.0909090909090922E-3</v>
+      </c>
+      <c r="AD111" s="20">
+        <f t="shared" si="6"/>
+        <v>9.0909090909090922E-3</v>
+      </c>
+      <c r="AE111" s="20">
+        <f t="shared" si="6"/>
+        <v>9.0909090909090922E-3</v>
+      </c>
+      <c r="AF111" s="20">
+        <f t="shared" si="6"/>
+        <v>9.0909090909090922E-3</v>
+      </c>
       <c r="AG111" s="20">
-        <v>0.2</v>
+        <f t="shared" si="6"/>
+        <v>9.0909090909090922E-3</v>
       </c>
       <c r="AH111" s="20"/>
-      <c r="AI111" s="49">
+      <c r="AI111" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.4</v>
-      </c>
-      <c r="AJ111" s="49">
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="AJ111" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>16</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="112" spans="1:36">
       <c r="A112" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>125</v>
+        <v>254</v>
+      </c>
+      <c r="B112" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D112" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E112" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F112" s="11" t="s">
-        <v>226</v>
-      </c>
+      <c r="F112" s="12"/>
       <c r="G112" s="11" t="s">
         <v>244</v>
       </c>
       <c r="H112" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I112" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="J112" s="11">
-        <v>0.5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J112" s="11"/>
       <c r="K112" s="18"/>
       <c r="L112" s="18"/>
       <c r="M112" s="18"/>
@@ -17913,77 +17909,63 @@
       <c r="U112" s="18"/>
       <c r="V112" s="19"/>
       <c r="W112" s="20"/>
-      <c r="X112" s="20">
-        <v>0.03</v>
-      </c>
-      <c r="Y112" s="20">
-        <v>0.03</v>
-      </c>
-      <c r="Z112" s="20">
-        <v>0.03</v>
-      </c>
-      <c r="AA112" s="20">
-        <v>0.03</v>
-      </c>
-      <c r="AB112" s="20">
-        <v>0.03</v>
-      </c>
+      <c r="X112" s="20"/>
+      <c r="Y112" s="20"/>
+      <c r="Z112" s="20"/>
+      <c r="AA112" s="20"/>
+      <c r="AB112" s="20"/>
       <c r="AC112" s="20">
-        <v>0.03</v>
-      </c>
-      <c r="AD112" s="20">
-        <v>0.03</v>
-      </c>
-      <c r="AE112" s="20">
-        <v>0.03</v>
-      </c>
-      <c r="AF112" s="20">
-        <v>0.03</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="AD112" s="20"/>
+      <c r="AE112" s="20"/>
+      <c r="AF112" s="20"/>
       <c r="AG112" s="20">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="AH112" s="20"/>
       <c r="AI112" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.30000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="AJ112" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:36">
       <c r="A113" s="3" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>5</v>
+        <v>117</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="D113" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E113" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F113" s="12"/>
+      <c r="F113" s="11" t="s">
+        <v>226</v>
+      </c>
       <c r="G113" s="11" t="s">
         <v>244</v>
       </c>
       <c r="H113" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I113" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>20</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="J113" s="11">
-        <v>25</v>
+        <v>0.5</v>
       </c>
       <c r="K113" s="18"/>
       <c r="L113" s="18"/>
@@ -17998,60 +17980,78 @@
       <c r="U113" s="18"/>
       <c r="V113" s="19"/>
       <c r="W113" s="20"/>
-      <c r="X113" s="20"/>
-      <c r="Y113" s="20"/>
-      <c r="Z113" s="20"/>
-      <c r="AA113" s="20"/>
-      <c r="AB113" s="20"/>
-      <c r="AC113" s="20"/>
-      <c r="AD113" s="20"/>
-      <c r="AE113" s="20"/>
-      <c r="AF113" s="20"/>
-      <c r="AG113" s="20"/>
-      <c r="AH113" s="20">
-        <v>0.5</v>
-      </c>
+      <c r="X113" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="Y113" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="Z113" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="AA113" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="AB113" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="AC113" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="AD113" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="AE113" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="AF113" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="AG113" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="AH113" s="20"/>
       <c r="AI113" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.5</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AJ113" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:36">
       <c r="A114" s="3" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="C114" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D114" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E114" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F114" s="12" t="s">
-        <v>210</v>
-      </c>
+      <c r="F114" s="12"/>
       <c r="G114" s="11" t="s">
         <v>244</v>
       </c>
       <c r="H114" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I114" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
-      </c>
-      <c r="J114" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="J114" s="11">
+        <v>25</v>
+      </c>
       <c r="K114" s="18"/>
       <c r="L114" s="18"/>
       <c r="M114" s="18"/>
@@ -18071,43 +18071,43 @@
       <c r="AA114" s="20"/>
       <c r="AB114" s="20"/>
       <c r="AC114" s="20"/>
-      <c r="AD114" s="20">
-        <v>0.2</v>
-      </c>
+      <c r="AD114" s="20"/>
       <c r="AE114" s="20"/>
       <c r="AF114" s="20"/>
-      <c r="AG114" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="AH114" s="20"/>
+      <c r="AG114" s="20"/>
+      <c r="AH114" s="20">
+        <v>0.5</v>
+      </c>
       <c r="AI114" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AJ114" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:36">
       <c r="A115" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D115" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E115" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F115" s="12"/>
+      <c r="F115" s="12" t="s">
+        <v>210</v>
+      </c>
       <c r="G115" s="11" t="s">
         <v>244</v>
       </c>
@@ -18116,7 +18116,7 @@
       </c>
       <c r="I115" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>13.333333333333332</v>
+        <v>8</v>
       </c>
       <c r="J115" s="11"/>
       <c r="K115" s="18"/>
@@ -18134,155 +18134,106 @@
       <c r="W115" s="20"/>
       <c r="X115" s="20"/>
       <c r="Y115" s="20"/>
-      <c r="Z115" s="20">
-        <v>0.2</v>
-      </c>
+      <c r="Z115" s="20"/>
       <c r="AA115" s="20"/>
       <c r="AB115" s="20"/>
       <c r="AC115" s="20"/>
       <c r="AD115" s="20">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AE115" s="20"/>
       <c r="AF115" s="20"/>
       <c r="AG115" s="20">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AH115" s="20"/>
       <c r="AI115" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AJ115" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:36">
       <c r="A116" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B116" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>124</v>
+        <v>195</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D116" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E116" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>60</v>
-      </c>
-      <c r="F116" s="11" t="s">
-        <v>246</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F116" s="12"/>
       <c r="G116" s="11" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H116" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I116" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>9.9999999999999964</v>
-      </c>
-      <c r="J116" s="11">
-        <v>20</v>
-      </c>
-      <c r="K116" s="18">
-        <f>1/24</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="L116" s="18">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M116" s="18">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="N116" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="O116" s="18">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="P116" s="18">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="Q116" s="18">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="R116" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="S116" s="18">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="T116" s="18">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="U116" s="18">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="V116" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="W116" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="X116" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="Y116" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
+        <v>13.333333333333332</v>
+      </c>
+      <c r="J116" s="11"/>
+      <c r="K116" s="18"/>
+      <c r="L116" s="18"/>
+      <c r="M116" s="18"/>
+      <c r="N116" s="19"/>
+      <c r="O116" s="18"/>
+      <c r="P116" s="18"/>
+      <c r="Q116" s="18"/>
+      <c r="R116" s="19"/>
+      <c r="S116" s="18"/>
+      <c r="T116" s="18"/>
+      <c r="U116" s="18"/>
+      <c r="V116" s="19"/>
+      <c r="W116" s="20"/>
+      <c r="X116" s="20"/>
+      <c r="Y116" s="20"/>
       <c r="Z116" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AA116" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AB116" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AC116" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="AA116" s="20"/>
+      <c r="AB116" s="20"/>
+      <c r="AC116" s="20"/>
       <c r="AD116" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AE116" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AF116" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="AE116" s="20"/>
+      <c r="AF116" s="20"/>
       <c r="AG116" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AH116" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="AH116" s="20"/>
       <c r="AI116" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.99999999999999956</v>
+        <v>1</v>
       </c>
       <c r="AJ116" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>480</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:36">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="28" t="s">
         <v>23</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D117" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -18293,56 +18244,101 @@
         <v>60</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H117" s="11">
         <v>1</v>
       </c>
       <c r="I117" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>30</v>
+        <v>9.9999999999999964</v>
       </c>
       <c r="J117" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="K117" s="18"/>
-      <c r="L117" s="18"/>
-      <c r="M117" s="18"/>
-      <c r="N117" s="18"/>
-      <c r="O117" s="18"/>
-      <c r="P117" s="18"/>
-      <c r="Q117" s="18"/>
-      <c r="R117" s="18"/>
-      <c r="S117" s="18"/>
-      <c r="T117" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="K117" s="18">
+        <f>1/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="L117" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M117" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="N117" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="O117" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="P117" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="Q117" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="R117" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="S117" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="T117" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="U117" s="18">
-        <v>0.125</v>
-      </c>
-      <c r="V117" s="18"/>
-      <c r="W117" s="20"/>
-      <c r="X117" s="20"/>
-      <c r="Y117" s="20"/>
-      <c r="Z117" s="20"/>
-      <c r="AA117" s="20"/>
-      <c r="AB117" s="20"/>
-      <c r="AC117" s="20"/>
-      <c r="AD117" s="20"/>
-      <c r="AE117" s="20"/>
-      <c r="AF117" s="20"/>
-      <c r="AG117" s="20"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="V117" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="W117" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="X117" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="Y117" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="Z117" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AA117" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AB117" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AC117" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AD117" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AE117" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AF117" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AG117" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="AH117" s="20">
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AI117" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.25</v>
+        <v>0.99999999999999956</v>
       </c>
       <c r="AJ117" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>0.2</v>
+        <v>480</v>
       </c>
     </row>
     <row r="118" spans="1:36">
@@ -18353,7 +18349,7 @@
         <v>23</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D118" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -18364,7 +18360,7 @@
         <v>60</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>244</v>
@@ -18374,26 +18370,26 @@
       </c>
       <c r="I118" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J118" s="11">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="K118" s="18"/>
       <c r="L118" s="18"/>
       <c r="M118" s="18"/>
-      <c r="N118" s="19"/>
+      <c r="N118" s="18"/>
       <c r="O118" s="18"/>
       <c r="P118" s="18"/>
       <c r="Q118" s="18"/>
-      <c r="R118" s="19"/>
+      <c r="R118" s="18"/>
       <c r="S118" s="18"/>
       <c r="T118" s="18"/>
-      <c r="U118" s="18"/>
-      <c r="V118" s="19"/>
-      <c r="W118" s="20">
-        <v>0.1</v>
-      </c>
+      <c r="U118" s="18">
+        <v>0.125</v>
+      </c>
+      <c r="V118" s="18"/>
+      <c r="W118" s="20"/>
       <c r="X118" s="20"/>
       <c r="Y118" s="20"/>
       <c r="Z118" s="20"/>
@@ -18404,14 +18400,16 @@
       <c r="AE118" s="20"/>
       <c r="AF118" s="20"/>
       <c r="AG118" s="20"/>
-      <c r="AH118" s="20"/>
+      <c r="AH118" s="20">
+        <v>0.125</v>
+      </c>
       <c r="AI118" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AJ118" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="119" spans="1:36">
@@ -18422,7 +18420,7 @@
         <v>23</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D119" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -18433,20 +18431,20 @@
         <v>60</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>244</v>
       </c>
       <c r="H119" s="11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I119" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="J119" s="11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K119" s="18"/>
       <c r="L119" s="18"/>
@@ -18458,11 +18456,11 @@
       <c r="R119" s="19"/>
       <c r="S119" s="18"/>
       <c r="T119" s="18"/>
-      <c r="U119" s="18">
-        <v>0.2</v>
-      </c>
+      <c r="U119" s="18"/>
       <c r="V119" s="19"/>
-      <c r="W119" s="20"/>
+      <c r="W119" s="20">
+        <v>0.1</v>
+      </c>
       <c r="X119" s="20"/>
       <c r="Y119" s="20"/>
       <c r="Z119" s="20"/>
@@ -18473,84 +18471,63 @@
       <c r="AE119" s="20"/>
       <c r="AF119" s="20"/>
       <c r="AG119" s="20"/>
-      <c r="AH119" s="20">
-        <v>0.2</v>
-      </c>
+      <c r="AH119" s="20"/>
       <c r="AI119" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AJ119" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:36">
-      <c r="A120" s="50" t="s">
-        <v>259</v>
-      </c>
-      <c r="B120" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="C120" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="D120" s="46">
+      <c r="A120" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D120" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
-      </c>
-      <c r="E120" s="46">
+        <v>75</v>
+      </c>
+      <c r="E120" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>10</v>
-      </c>
-      <c r="F120" s="47" t="s">
-        <v>267</v>
+        <v>60</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>247</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="H120" s="47">
-        <v>1</v>
-      </c>
-      <c r="I120" s="48">
+      <c r="H120" s="11">
+        <v>11</v>
+      </c>
+      <c r="I120" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>1.142857142857143</v>
-      </c>
-      <c r="J120" s="47">
-        <v>0.5</v>
+        <v>48</v>
+      </c>
+      <c r="J120" s="11">
+        <v>10</v>
       </c>
       <c r="K120" s="18"/>
-      <c r="L120" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="M120" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="N120" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
+      <c r="L120" s="18"/>
+      <c r="M120" s="18"/>
+      <c r="N120" s="19"/>
       <c r="O120" s="18"/>
-      <c r="P120" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="Q120" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="R120" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="S120" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
+      <c r="P120" s="18"/>
+      <c r="Q120" s="18"/>
+      <c r="R120" s="19"/>
+      <c r="S120" s="18"/>
       <c r="T120" s="18"/>
-      <c r="U120" s="18"/>
+      <c r="U120" s="18">
+        <v>0.2</v>
+      </c>
       <c r="V120" s="19"/>
       <c r="W120" s="20"/>
       <c r="X120" s="20"/>
@@ -18563,59 +18540,82 @@
       <c r="AE120" s="20"/>
       <c r="AF120" s="20"/>
       <c r="AG120" s="20"/>
-      <c r="AH120" s="20"/>
-      <c r="AI120" s="49">
+      <c r="AH120" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="AI120" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="AJ120" s="49">
+        <v>0.4</v>
+      </c>
+      <c r="AJ120" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>3.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:36">
-      <c r="A121" s="50" t="s">
+      <c r="A121" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B121" s="51" t="s">
+      <c r="B121" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C121" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D121" s="46">
+      <c r="C121" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D121" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E121" s="46">
+      <c r="E121" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F121" s="47" t="s">
-        <v>268</v>
+      <c r="F121" s="11" t="s">
+        <v>267</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="H121" s="47">
-        <v>2</v>
-      </c>
-      <c r="I121" s="48">
+      <c r="H121" s="11">
+        <v>1</v>
+      </c>
+      <c r="I121" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
-      </c>
-      <c r="J121" s="47"/>
+        <v>1.142857142857143</v>
+      </c>
+      <c r="J121" s="11">
+        <v>0.5</v>
+      </c>
       <c r="K121" s="18"/>
-      <c r="L121" s="18"/>
-      <c r="M121" s="18"/>
-      <c r="N121" s="19">
-        <v>0.2</v>
+      <c r="L121" s="18">
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="M121" s="18">
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="N121" s="18">
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
       </c>
       <c r="O121" s="18"/>
-      <c r="P121" s="18"/>
-      <c r="Q121" s="18"/>
-      <c r="R121" s="19"/>
-      <c r="S121" s="18"/>
+      <c r="P121" s="18">
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="Q121" s="18">
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="R121" s="18">
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="S121" s="18">
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
       <c r="T121" s="18"/>
       <c r="U121" s="18"/>
       <c r="V121" s="19"/>
@@ -18631,57 +18631,57 @@
       <c r="AF121" s="20"/>
       <c r="AG121" s="20"/>
       <c r="AH121" s="20"/>
-      <c r="AI121" s="49">
+      <c r="AI121" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
-      </c>
-      <c r="AJ121" s="49">
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AJ121" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="122" spans="1:36">
-      <c r="A122" s="50" t="s">
+      <c r="A122" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B122" s="51" t="s">
+      <c r="B122" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C122" s="47" t="s">
+      <c r="C122" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D122" s="46">
+      <c r="D122" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E122" s="46">
+      <c r="E122" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F122" s="47" t="s">
-        <v>269</v>
+      <c r="F122" s="11" t="s">
+        <v>268</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="H122" s="47">
-        <v>4</v>
-      </c>
-      <c r="I122" s="48">
+      <c r="H122" s="11">
+        <v>2</v>
+      </c>
+      <c r="I122" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
-      <c r="J122" s="47"/>
+      <c r="J122" s="11"/>
       <c r="K122" s="18"/>
       <c r="L122" s="18"/>
       <c r="M122" s="18"/>
-      <c r="N122" s="19"/>
+      <c r="N122" s="19">
+        <v>0.2</v>
+      </c>
       <c r="O122" s="18"/>
       <c r="P122" s="18"/>
       <c r="Q122" s="18"/>
-      <c r="R122" s="19">
-        <v>0.2</v>
-      </c>
+      <c r="R122" s="19"/>
       <c r="S122" s="18"/>
       <c r="T122" s="18"/>
       <c r="U122" s="18"/>
@@ -18698,47 +18698,47 @@
       <c r="AF122" s="20"/>
       <c r="AG122" s="20"/>
       <c r="AH122" s="20"/>
-      <c r="AI122" s="49">
+      <c r="AI122" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
         <v>0.2</v>
       </c>
-      <c r="AJ122" s="49">
+      <c r="AJ122" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:36">
-      <c r="A123" s="50" t="s">
+      <c r="A123" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B123" s="51" t="s">
+      <c r="B123" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C123" s="47" t="s">
+      <c r="C123" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D123" s="46">
+      <c r="D123" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E123" s="46">
+      <c r="E123" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F123" s="47" t="s">
-        <v>270</v>
+      <c r="F123" s="11" t="s">
+        <v>269</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="H123" s="47">
-        <v>3</v>
-      </c>
-      <c r="I123" s="48">
+      <c r="H123" s="11">
+        <v>4</v>
+      </c>
+      <c r="I123" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>16</v>
-      </c>
-      <c r="J123" s="47"/>
+        <v>8</v>
+      </c>
+      <c r="J123" s="11"/>
       <c r="K123" s="18"/>
       <c r="L123" s="18"/>
       <c r="M123" s="18"/>
@@ -18746,12 +18746,12 @@
       <c r="O123" s="18"/>
       <c r="P123" s="18"/>
       <c r="Q123" s="18"/>
-      <c r="R123" s="19"/>
+      <c r="R123" s="19">
+        <v>0.2</v>
+      </c>
       <c r="S123" s="18"/>
       <c r="T123" s="18"/>
-      <c r="U123" s="18">
-        <v>0.4</v>
-      </c>
+      <c r="U123" s="18"/>
       <c r="V123" s="19"/>
       <c r="W123" s="20"/>
       <c r="X123" s="20"/>
@@ -18765,61 +18765,59 @@
       <c r="AF123" s="20"/>
       <c r="AG123" s="20"/>
       <c r="AH123" s="20"/>
-      <c r="AI123" s="49">
+      <c r="AI123" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.4</v>
-      </c>
-      <c r="AJ123" s="49">
+        <v>0.2</v>
+      </c>
+      <c r="AJ123" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:36">
-      <c r="A124" s="50" t="s">
-        <v>261</v>
-      </c>
-      <c r="B124" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="C124" s="47" t="s">
+      <c r="A124" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C124" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D124" s="46">
+      <c r="D124" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E124" s="46">
+      <c r="E124" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F124" s="47" t="s">
-        <v>209</v>
+      <c r="F124" s="11" t="s">
+        <v>270</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="H124" s="47">
-        <v>5</v>
-      </c>
-      <c r="I124" s="48">
+      <c r="H124" s="11">
+        <v>3</v>
+      </c>
+      <c r="I124" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>20</v>
-      </c>
-      <c r="J124" s="47"/>
+        <v>16</v>
+      </c>
+      <c r="J124" s="11"/>
       <c r="K124" s="18"/>
       <c r="L124" s="18"/>
       <c r="M124" s="18"/>
       <c r="N124" s="19"/>
       <c r="O124" s="18"/>
-      <c r="P124" s="18">
-        <v>0.5</v>
-      </c>
+      <c r="P124" s="18"/>
       <c r="Q124" s="18"/>
       <c r="R124" s="19"/>
       <c r="S124" s="18"/>
       <c r="T124" s="18"/>
       <c r="U124" s="18">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="V124" s="19"/>
       <c r="W124" s="20"/>
@@ -18834,21 +18832,21 @@
       <c r="AF124" s="20"/>
       <c r="AG124" s="20"/>
       <c r="AH124" s="20"/>
-      <c r="AI124" s="49">
+      <c r="AI124" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>1</v>
-      </c>
-      <c r="AJ124" s="49">
+        <v>0.4</v>
+      </c>
+      <c r="AJ124" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:36">
       <c r="A125" s="4" t="s">
-        <v>181</v>
+        <v>261</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>184</v>
+        <v>262</v>
       </c>
       <c r="C125" s="11" t="s">
         <v>5</v>
@@ -18859,33 +18857,37 @@
       </c>
       <c r="E125" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
-      </c>
-      <c r="F125" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>209</v>
+      </c>
       <c r="G125" s="11" t="s">
         <v>244</v>
       </c>
       <c r="H125" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I125" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J125" s="11"/>
       <c r="K125" s="18"/>
       <c r="L125" s="18"/>
-      <c r="M125" s="18">
-        <v>0.1</v>
-      </c>
+      <c r="M125" s="18"/>
       <c r="N125" s="19"/>
       <c r="O125" s="18"/>
-      <c r="P125" s="18"/>
+      <c r="P125" s="18">
+        <v>0.5</v>
+      </c>
       <c r="Q125" s="18"/>
       <c r="R125" s="19"/>
       <c r="S125" s="18"/>
       <c r="T125" s="18"/>
-      <c r="U125" s="18"/>
+      <c r="U125" s="18">
+        <v>0.5</v>
+      </c>
       <c r="V125" s="19"/>
       <c r="W125" s="20"/>
       <c r="X125" s="20"/>
@@ -18901,11 +18903,11 @@
       <c r="AH125" s="20"/>
       <c r="AI125" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AJ125" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:36">
@@ -18931,20 +18933,20 @@
         <v>244</v>
       </c>
       <c r="H126" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I126" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J126" s="11"/>
       <c r="K126" s="18"/>
       <c r="L126" s="18"/>
-      <c r="M126" s="18"/>
+      <c r="M126" s="18">
+        <v>0.1</v>
+      </c>
       <c r="N126" s="19"/>
-      <c r="O126" s="18">
-        <v>0.3</v>
-      </c>
+      <c r="O126" s="18"/>
       <c r="P126" s="18"/>
       <c r="Q126" s="18"/>
       <c r="R126" s="19"/>
@@ -18966,11 +18968,11 @@
       <c r="AH126" s="20"/>
       <c r="AI126" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AJ126" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:36">
@@ -18996,21 +18998,21 @@
         <v>244</v>
       </c>
       <c r="H127" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I127" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J127" s="11"/>
       <c r="K127" s="18"/>
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
       <c r="N127" s="19"/>
-      <c r="O127" s="18"/>
-      <c r="P127" s="18">
-        <v>0.1</v>
-      </c>
+      <c r="O127" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="P127" s="18"/>
       <c r="Q127" s="18"/>
       <c r="R127" s="19"/>
       <c r="S127" s="18"/>
@@ -19031,11 +19033,11 @@
       <c r="AH127" s="20"/>
       <c r="AI127" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AJ127" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:36">
@@ -19046,7 +19048,7 @@
         <v>184</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="D128" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -19061,11 +19063,11 @@
         <v>244</v>
       </c>
       <c r="H128" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I128" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J128" s="11"/>
       <c r="K128" s="18"/>
@@ -19073,14 +19075,14 @@
       <c r="M128" s="18"/>
       <c r="N128" s="19"/>
       <c r="O128" s="18"/>
-      <c r="P128" s="18"/>
+      <c r="P128" s="18">
+        <v>0.1</v>
+      </c>
       <c r="Q128" s="18"/>
       <c r="R128" s="19"/>
       <c r="S128" s="18"/>
       <c r="T128" s="18"/>
-      <c r="U128" s="18">
-        <v>0.3</v>
-      </c>
+      <c r="U128" s="18"/>
       <c r="V128" s="19"/>
       <c r="W128" s="20"/>
       <c r="X128" s="20"/>
@@ -19096,11 +19098,11 @@
       <c r="AH128" s="20"/>
       <c r="AI128" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AJ128" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:36">
@@ -19111,7 +19113,7 @@
         <v>184</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D129" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -19130,7 +19132,7 @@
       </c>
       <c r="I129" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J129" s="11"/>
       <c r="K129" s="18"/>
@@ -19144,7 +19146,7 @@
       <c r="S129" s="18"/>
       <c r="T129" s="18"/>
       <c r="U129" s="18">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V129" s="19"/>
       <c r="W129" s="20"/>
@@ -19161,22 +19163,22 @@
       <c r="AH129" s="20"/>
       <c r="AI129" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AJ129" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:36">
       <c r="A130" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="D130" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -19191,11 +19193,11 @@
         <v>244</v>
       </c>
       <c r="H130" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I130" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J130" s="11"/>
       <c r="K130" s="18"/>
@@ -19208,13 +19210,13 @@
       <c r="R130" s="19"/>
       <c r="S130" s="18"/>
       <c r="T130" s="18"/>
-      <c r="U130" s="18"/>
+      <c r="U130" s="18">
+        <v>0.2</v>
+      </c>
       <c r="V130" s="19"/>
       <c r="W130" s="20"/>
       <c r="X130" s="20"/>
-      <c r="Y130" s="20">
-        <v>0.1</v>
-      </c>
+      <c r="Y130" s="20"/>
       <c r="Z130" s="20"/>
       <c r="AA130" s="20"/>
       <c r="AB130" s="20"/>
@@ -19226,11 +19228,11 @@
       <c r="AH130" s="20"/>
       <c r="AI130" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AJ130" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:36">
@@ -19241,7 +19243,7 @@
         <v>185</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="D131" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -19256,11 +19258,11 @@
         <v>244</v>
       </c>
       <c r="H131" s="11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I131" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J131" s="11"/>
       <c r="K131" s="18"/>
@@ -19277,13 +19279,13 @@
       <c r="V131" s="19"/>
       <c r="W131" s="20"/>
       <c r="X131" s="20"/>
-      <c r="Y131" s="20"/>
+      <c r="Y131" s="20">
+        <v>0.1</v>
+      </c>
       <c r="Z131" s="20"/>
       <c r="AA131" s="20"/>
       <c r="AB131" s="20"/>
-      <c r="AC131" s="20">
-        <v>0.3</v>
-      </c>
+      <c r="AC131" s="20"/>
       <c r="AD131" s="20"/>
       <c r="AE131" s="20"/>
       <c r="AF131" s="20"/>
@@ -19291,11 +19293,11 @@
       <c r="AH131" s="20"/>
       <c r="AI131" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AJ131" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:36">
@@ -19306,7 +19308,7 @@
         <v>185</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D132" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -19321,11 +19323,11 @@
         <v>244</v>
       </c>
       <c r="H132" s="11">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I132" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J132" s="11"/>
       <c r="K132" s="18"/>
@@ -19346,21 +19348,21 @@
       <c r="Z132" s="20"/>
       <c r="AA132" s="20"/>
       <c r="AB132" s="20"/>
-      <c r="AC132" s="20"/>
+      <c r="AC132" s="20">
+        <v>0.3</v>
+      </c>
       <c r="AD132" s="20"/>
       <c r="AE132" s="20"/>
       <c r="AF132" s="20"/>
-      <c r="AG132" s="20">
-        <v>0.2</v>
-      </c>
+      <c r="AG132" s="20"/>
       <c r="AH132" s="20"/>
       <c r="AI132" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AJ132" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:36">
@@ -19371,7 +19373,7 @@
         <v>185</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D133" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -19386,11 +19388,11 @@
         <v>244</v>
       </c>
       <c r="H133" s="11">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I133" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J133" s="11"/>
       <c r="K133" s="18"/>
@@ -19415,15 +19417,80 @@
       <c r="AD133" s="20"/>
       <c r="AE133" s="20"/>
       <c r="AF133" s="20"/>
-      <c r="AG133" s="20"/>
-      <c r="AH133" s="20">
-        <v>0.4</v>
-      </c>
+      <c r="AG133" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="AH133" s="20"/>
       <c r="AI133" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+        <v>0.2</v>
+      </c>
+      <c r="AJ133" s="27">
+        <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:36">
+      <c r="A134" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D134" s="29">
+        <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>100</v>
+      </c>
+      <c r="E134" s="29">
+        <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>20</v>
+      </c>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H134" s="11">
+        <v>6</v>
+      </c>
+      <c r="I134" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>32</v>
+      </c>
+      <c r="J134" s="11"/>
+      <c r="K134" s="18"/>
+      <c r="L134" s="18"/>
+      <c r="M134" s="18"/>
+      <c r="N134" s="19"/>
+      <c r="O134" s="18"/>
+      <c r="P134" s="18"/>
+      <c r="Q134" s="18"/>
+      <c r="R134" s="19"/>
+      <c r="S134" s="18"/>
+      <c r="T134" s="18"/>
+      <c r="U134" s="18"/>
+      <c r="V134" s="19"/>
+      <c r="W134" s="20"/>
+      <c r="X134" s="20"/>
+      <c r="Y134" s="20"/>
+      <c r="Z134" s="20"/>
+      <c r="AA134" s="20"/>
+      <c r="AB134" s="20"/>
+      <c r="AC134" s="20"/>
+      <c r="AD134" s="20"/>
+      <c r="AE134" s="20"/>
+      <c r="AF134" s="20"/>
+      <c r="AG134" s="20"/>
+      <c r="AH134" s="20">
         <v>0.4</v>
       </c>
-      <c r="AJ133" s="27">
+      <c r="AI134" s="27">
+        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+        <v>0.4</v>
+      </c>
+      <c r="AJ134" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>32</v>
       </c>
@@ -19449,16 +19516,16 @@
       <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.9296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.9296875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" style="10" customWidth="1"/>
-    <col min="7" max="15" width="16.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="17.265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="30" width="8.73046875" style="16"/>
+    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10" style="10" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="10" customWidth="1"/>
+    <col min="7" max="15" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="17.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="30" width="8.7109375" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -22590,7 +22657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="14.55" customHeight="1">
+    <row r="34" spans="1:31" ht="14.65" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>18</v>
       </c>
@@ -22780,7 +22847,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" ht="28.5">
       <c r="A36" s="8" t="s">
         <v>21</v>
       </c>
@@ -24018,7 +24085,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="14.55" customHeight="1">
+    <row r="49" spans="1:31" ht="14.65" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>69</v>
       </c>
@@ -24208,7 +24275,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="14.55" customHeight="1">
+    <row r="51" spans="1:31" ht="14.65" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>190</v>
       </c>
@@ -25256,16 +25323,16 @@
       </c>
     </row>
     <row r="62" spans="1:31">
-      <c r="A62" s="50" t="s">
+      <c r="A62" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B62" s="51" t="s">
+      <c r="B62" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C62" s="47" t="s">
+      <c r="C62" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="D62" s="46">
+      <c r="D62" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
@@ -25273,53 +25340,53 @@
         <f>INDEX(Table2[Semester],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>SEM1</v>
       </c>
-      <c r="F62" s="48">
+      <c r="F62" s="11">
         <f>INDEX(Table2[Contact Time],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>2</v>
       </c>
-      <c r="G62" s="52">
-        <v>2</v>
-      </c>
-      <c r="H62" s="52">
-        <v>2</v>
-      </c>
-      <c r="I62" s="52">
-        <v>2</v>
-      </c>
-      <c r="J62" s="52">
-        <v>2</v>
-      </c>
-      <c r="K62" s="52"/>
-      <c r="L62" s="52">
-        <v>2</v>
-      </c>
-      <c r="M62" s="52">
-        <v>2</v>
-      </c>
-      <c r="N62" s="52">
-        <v>2</v>
-      </c>
-      <c r="O62" s="52">
-        <v>2</v>
-      </c>
-      <c r="P62" s="52">
-        <v>2</v>
-      </c>
-      <c r="Q62" s="52"/>
-      <c r="R62" s="53"/>
-      <c r="S62" s="54"/>
-      <c r="T62" s="54"/>
-      <c r="U62" s="54"/>
-      <c r="V62" s="54"/>
-      <c r="W62" s="54"/>
-      <c r="X62" s="54"/>
-      <c r="Y62" s="54"/>
-      <c r="Z62" s="54"/>
-      <c r="AA62" s="54"/>
-      <c r="AB62" s="54"/>
-      <c r="AC62" s="54"/>
-      <c r="AD62" s="54"/>
-      <c r="AE62" s="55">
+      <c r="G62" s="31">
+        <v>2</v>
+      </c>
+      <c r="H62" s="31">
+        <v>2</v>
+      </c>
+      <c r="I62" s="31">
+        <v>2</v>
+      </c>
+      <c r="J62" s="31">
+        <v>2</v>
+      </c>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31">
+        <v>2</v>
+      </c>
+      <c r="M62" s="31">
+        <v>2</v>
+      </c>
+      <c r="N62" s="31">
+        <v>2</v>
+      </c>
+      <c r="O62" s="31">
+        <v>2</v>
+      </c>
+      <c r="P62" s="31">
+        <v>2</v>
+      </c>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="33"/>
+      <c r="T62" s="33"/>
+      <c r="U62" s="33"/>
+      <c r="V62" s="33"/>
+      <c r="W62" s="33"/>
+      <c r="X62" s="33"/>
+      <c r="Y62" s="33"/>
+      <c r="Z62" s="33"/>
+      <c r="AA62" s="33"/>
+      <c r="AB62" s="33"/>
+      <c r="AC62" s="33"/>
+      <c r="AD62" s="33"/>
+      <c r="AE62" s="37">
         <f>SUM(Table14[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
         <v>18</v>
       </c>
@@ -25608,15 +25675,15 @@
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.796875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.9296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -26873,7 +26940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" ht="28.5">
       <c r="A28" s="4" t="s">
         <v>263</v>
       </c>
@@ -26922,7 +26989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" ht="28.5">
       <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
@@ -26971,7 +27038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" ht="28.5">
       <c r="A30" s="4" t="s">
         <v>10</v>
       </c>
@@ -27020,7 +27087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" ht="28.5">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -27069,7 +27136,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" ht="28.5">
       <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
@@ -27119,7 +27186,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" ht="28.5">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
@@ -27167,7 +27234,7 @@
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" ht="28.5">
       <c r="A34" s="4" t="s">
         <v>18</v>
       </c>
@@ -27219,7 +27286,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" ht="28.5">
       <c r="A35" s="4" t="s">
         <v>24</v>
       </c>
@@ -27271,7 +27338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" ht="28.5">
       <c r="A36" s="8" t="s">
         <v>21</v>
       </c>
@@ -27701,7 +27768,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" ht="28.5">
       <c r="A45" s="4" t="s">
         <v>61</v>
       </c>
@@ -27748,10 +27815,10 @@
       </c>
       <c r="R45">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="28.5">
       <c r="A46" s="4" t="s">
         <v>253</v>
       </c>
@@ -27801,7 +27868,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" ht="28.5">
       <c r="A47" s="4" t="s">
         <v>63</v>
       </c>
@@ -27847,7 +27914,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" ht="28.5">
       <c r="A48" s="4" t="s">
         <v>66</v>
       </c>
@@ -27897,7 +27964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" ht="28.5">
       <c r="A49" s="4" t="s">
         <v>69</v>
       </c>
@@ -27947,7 +28014,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" ht="28.5">
       <c r="A50" s="4" t="s">
         <v>71</v>
       </c>
@@ -28438,51 +28505,51 @@
       </c>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="39" t="s">
+      <c r="A60" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C60" s="3" t="s">
         <v>265</v>
       </c>
       <c r="D60" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="E60" s="39" t="s">
+      <c r="E60" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F60" s="40">
+      <c r="F60" s="4">
         <v>7</v>
       </c>
-      <c r="G60" s="41">
+      <c r="G60" s="28">
         <v>10</v>
       </c>
-      <c r="H60" s="42" t="s">
+      <c r="H60" t="s">
         <v>144</v>
       </c>
       <c r="I60" t="s">
         <v>144</v>
       </c>
-      <c r="J60" s="42" t="s">
+      <c r="J60" t="s">
         <v>144</v>
       </c>
-      <c r="K60" s="43"/>
-      <c r="L60" s="43"/>
-      <c r="M60" s="43"/>
-      <c r="N60" s="43"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
       <c r="O60" s="6">
         <v>2</v>
       </c>
-      <c r="P60" s="42">
+      <c r="P60">
         <v>50</v>
       </c>
-      <c r="Q60" s="44">
+      <c r="Q60">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>50</v>
       </c>
-      <c r="R60" s="44">
+      <c r="R60">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>50</v>
       </c>
@@ -29045,7 +29112,7 @@
       </c>
       <c r="R73">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -29662,180 +29729,162 @@
       </c>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="39" t="s">
+      <c r="A88" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B88" s="39" t="s">
+      <c r="B88" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C88" s="39" t="s">
+      <c r="C88" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D88" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="E88" s="39" t="s">
+      <c r="E88" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F88" s="40">
+      <c r="F88" s="4">
         <v>7</v>
       </c>
-      <c r="G88" s="41">
+      <c r="G88" s="28">
         <v>10</v>
       </c>
-      <c r="H88" s="42"/>
-      <c r="J88" s="42"/>
-      <c r="K88" s="42"/>
-      <c r="L88" s="42" t="s">
+      <c r="L88" t="s">
         <v>144</v>
       </c>
-      <c r="M88" s="42" t="s">
+      <c r="M88" t="s">
         <v>144</v>
       </c>
-      <c r="N88" s="42"/>
       <c r="O88">
         <f>INDEX(O32:O87,MATCH(Table2[[#This Row],[Alternative Module Code]],A32:A87,0))</f>
         <v>2</v>
       </c>
-      <c r="P88" s="42">
+      <c r="P88">
         <v>50</v>
       </c>
-      <c r="Q88" s="44">
+      <c r="Q88">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>50</v>
       </c>
-      <c r="R88" s="44">
+      <c r="R88">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="39" t="s">
+      <c r="A89" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B89" s="39" t="s">
+      <c r="B89" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C89" s="39"/>
+      <c r="C89" s="3"/>
       <c r="D89" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="E89" s="39" t="s">
+      <c r="E89" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F89" s="40">
+      <c r="F89" s="4">
         <v>7</v>
       </c>
-      <c r="G89" s="41">
+      <c r="G89" s="28">
         <v>10</v>
       </c>
-      <c r="H89" s="42"/>
-      <c r="J89" s="42"/>
-      <c r="K89" s="42"/>
-      <c r="L89" s="42"/>
-      <c r="M89" s="42"/>
-      <c r="N89" s="42" t="s">
+      <c r="N89" t="s">
         <v>144</v>
       </c>
       <c r="O89">
         <v>2</v>
       </c>
-      <c r="P89" s="42">
+      <c r="P89">
         <v>0</v>
       </c>
-      <c r="Q89" s="44">
+      <c r="Q89">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R89" s="44">
+      <c r="R89">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="39" t="s">
+      <c r="A90" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B90" s="39" t="s">
+      <c r="B90" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C90" s="39"/>
+      <c r="C90" s="3"/>
       <c r="D90" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="E90" s="39" t="s">
+      <c r="E90" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F90" s="40">
+      <c r="F90" s="4">
         <v>7</v>
       </c>
-      <c r="G90" s="41">
+      <c r="G90" s="28">
         <v>10</v>
       </c>
-      <c r="H90" s="42"/>
-      <c r="J90" s="42"/>
-      <c r="K90" s="42"/>
-      <c r="L90" s="42" t="s">
+      <c r="L90" t="s">
         <v>144</v>
       </c>
-      <c r="M90" s="42"/>
-      <c r="N90" s="42" t="s">
+      <c r="N90" t="s">
         <v>144</v>
       </c>
       <c r="O90">
         <v>2</v>
       </c>
-      <c r="P90" s="42">
+      <c r="P90">
         <v>0</v>
       </c>
-      <c r="Q90" s="44">
+      <c r="Q90">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R90" s="44">
+      <c r="R90">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:18">
-      <c r="A91" s="39" t="s">
+      <c r="A91" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B91" s="39" t="s">
+      <c r="B91" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C91" s="39"/>
+      <c r="C91" s="3"/>
       <c r="D91" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="E91" s="39" t="s">
+      <c r="E91" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F91" s="40">
+      <c r="F91" s="4">
         <v>7</v>
       </c>
-      <c r="G91" s="41">
+      <c r="G91" s="28">
         <v>10</v>
       </c>
-      <c r="H91" s="42"/>
-      <c r="J91" s="42"/>
-      <c r="K91" s="42"/>
-      <c r="L91" s="42"/>
-      <c r="M91" s="42"/>
-      <c r="N91" s="42" t="s">
+      <c r="N91" t="s">
         <v>144</v>
       </c>
       <c r="O91">
         <v>2</v>
       </c>
-      <c r="P91" s="42">
+      <c r="P91">
         <v>0</v>
       </c>
-      <c r="Q91" s="44">
+      <c r="Q91">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R91" s="44">
+      <c r="R91">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
@@ -30119,14 +30168,6 @@
       <formula>NOT(ISERROR(SEARCH("SEM1",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:O93">
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="O">
-      <formula>NOT(ISERROR(SEARCH("O",H2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",H2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F2:F93">
     <cfRule type="colorScale" priority="152">
       <colorScale>
@@ -30147,6 +30188,14 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:O93">
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30185,11 +30234,11 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.53125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
@@ -31325,7 +31374,7 @@
       </c>
       <c r="C50">
         <f>SUMIF(Table1[Module Code],Sheet2!A50,Table1[Total Hours])</f>
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="D50">
         <f>INDEX(Table14[Total],MATCH(Sheet2!A50,Table14[Module Code],0))</f>
@@ -31333,11 +31382,11 @@
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35.5</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="51" spans="1:6">
